--- a/MainTop/04.12.2024/печать.xlsx
+++ b/MainTop/04.12.2024/печать.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t xml:space="preserve">Артикул</t>
   </si>
@@ -32,6 +32,66 @@
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Змеи Змея на розовом фоне паттерн</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Минни Маус сидит сердечки</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Черепашки Ниндзя фон треугольник</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Холодное сердце 3 Эльза Анна Олаф</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Халк зеленый круг фон</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Шенячий Патруль и Логотип</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Спанч Боб руки в сторону</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Зайчик держит две морковки</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Черепашки Ниндзя классика</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Ежик Соник бежит из кольца</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Человек Паук и Веном половинки</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Котенок выглядывает из стены</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка мультяшный Кот картина Ван Гог</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Африка Девушка разнацветные воосы</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Аниме девочка в куртке со стикерами</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Аниме Девочка в розовый капюшоном</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Мэрилин Монро Supreme Суприм глаза</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Поцелуй в космосе картина маслом</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Поцелуй берега и реки картина маслом</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Крокодил футбол</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термобирки Леди Баг</t>
   </si>
 </sst>
 </file>
@@ -116,7 +176,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -127,6 +187,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -149,7 +213,7 @@
   <dimension ref="A1:AMJ1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -198,7 +262,167 @@
         <v>3</v>
       </c>
       <c r="B3" s="0" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
         <v>20</v>
+      </c>
+      <c r="B20" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="0" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="1048425" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
